--- a/flask/v5/templates/data_commercial.xlsx
+++ b/flask/v5/templates/data_commercial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelmah\Desktop\codes\bess-optimizer\flask\v5\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4280155D-7CDA-47C5-B55D-BA5AC62B3120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009FE0C-8301-4C58-B2F6-13A41CB55C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6021,8 +6021,8 @@
   </sheetPr>
   <dimension ref="A1:H993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="E352" sqref="E352"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -6074,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="17">
-        <v>0.98299098379408223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="17">
-        <v>1.0379359744971319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
@@ -6096,7 +6096,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="17">
-        <v>1.0077203751171819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
@@ -6107,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="17">
-        <v>1.1591484042195119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
@@ -6118,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="17">
-        <v>0.88411565150440297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
@@ -6129,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="17">
-        <v>1.215080999237004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
@@ -6140,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="17">
-        <v>1.05934948633154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.5">
@@ -6151,7 +6151,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="17">
-        <v>0.99192940417531739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.5">
@@ -6162,7 +6162,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="17">
-        <v>0.8744678158854069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
@@ -6173,7 +6173,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="17">
-        <v>1.293018154115914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
@@ -6184,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="17">
-        <v>0.90509615452039305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
@@ -6195,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="17">
-        <v>1.000532186978762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
@@ -6206,7 +6206,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="17">
-        <v>3.225220289387976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.5">
@@ -6217,7 +6217,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="17">
-        <v>3.2678345722140061</v>
+        <v>0.11834956800612689</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.5">
@@ -6228,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="17">
-        <v>3.77511445704104</v>
+        <v>0.23669913601225379</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.5">
@@ -6239,7 +6239,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="17">
-        <v>3.690370994426126</v>
+        <v>0.32705087395990395</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.5">
@@ -6250,7 +6250,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="17">
-        <v>3.529758711866168</v>
+        <v>0.41740261190755407</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.5">
@@ -6261,7 +6261,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="17">
-        <v>3.378053760726103</v>
+        <v>0.520518711756775</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.5">
@@ -6272,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="17">
-        <v>3.3180163731819201</v>
+        <v>0.62363481160599588</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
@@ -6283,7 +6283,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="17">
-        <v>1.254657305474663</v>
+        <v>0.69028871391076108</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
@@ -6294,7 +6294,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="17">
-        <v>1.682859974853022</v>
+        <v>0.75694261621552628</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
@@ -6305,7 +6305,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="17">
-        <v>2.1727449641604482</v>
+        <v>0.79547503370589312</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
@@ -6316,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="17">
-        <v>2.7348739313139259</v>
+        <v>0.83400745119625996</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.5">
@@ -6327,7 +6327,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="17">
-        <v>2.878771692929281</v>
+        <v>0.83374418623204005</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.5">
@@ -6338,7 +6338,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="17">
-        <v>3.0287750540158589</v>
+        <v>0.83348092126782025</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.5">
@@ -6349,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="17">
-        <v>3.592790932661893</v>
+        <v>0.85082848686467372</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.5">
@@ -6360,7 +6360,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="17">
-        <v>3.535250386943483</v>
+        <v>0.86817605246152729</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.5">
@@ -6371,7 +6371,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="17">
-        <v>3.344059448923451</v>
+        <v>0.873269830632873</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.5">
@@ -6382,7 +6382,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="17">
-        <v>3.5350370897795331</v>
+        <v>0.8783636088042186</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
@@ -6393,7 +6393,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="17">
-        <v>3.2333719075076979</v>
+        <v>0.86631724225961115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
@@ -6404,7 +6404,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="17">
-        <v>2.7974947407238249</v>
+        <v>0.8542708757150036</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
@@ -6415,7 +6415,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="17">
-        <v>2.46866251874158</v>
+        <v>0.82461367860932266</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
@@ -6426,7 +6426,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="17">
-        <v>1.8209298677422741</v>
+        <v>0.79495648150364184</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.5">
@@ -6437,7 +6437,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="17">
-        <v>1.6169130821482569</v>
+        <v>0.71097495791749432</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.5">
@@ -6448,7 +6448,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="17">
-        <v>3.4614541342571621</v>
+        <v>0.6269934343313468</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.5">
@@ -6459,7 +6459,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="17">
-        <v>3.4374693308766111</v>
+        <v>0.4288227269463657</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.5">
@@ -6470,7 +6470,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="17">
-        <v>3.7436037487127281</v>
+        <v>0.23065201956138462</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.5">
@@ -6481,7 +6481,7 @@
         <v>38</v>
       </c>
       <c r="C46" s="17">
-        <v>3.6232216786318219</v>
+        <v>0.20651540897813303</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.5">
@@ -6492,7 +6492,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="17">
-        <v>3.2538201664668809</v>
+        <v>0.18237879839488144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
@@ -6503,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="C48" s="17">
-        <v>3.4469432823876489</v>
+        <v>0.16621193627392319</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6514,7 +6514,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="17">
-        <v>3.7595003195974241</v>
+        <v>0.15004507415296492</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
@@ -6525,7 +6525,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="17">
-        <v>3.3298109381043788</v>
+        <v>7.502253707648246E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
@@ -6536,7 +6536,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="17">
-        <v>3.5341402561729969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
@@ -6547,7 +6547,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="17">
-        <v>0.95836631043958387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.5">
@@ -6558,7 +6558,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="17">
-        <v>0.75859409212400553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
@@ -6569,7 +6569,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="17">
-        <v>0.81728649119920482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
@@ -6580,7 +6580,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="17">
-        <v>1.178734037923052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6591,7 +6591,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="17">
-        <v>0.85905097349092119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="17">
-        <v>1.241858123440307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="17">
-        <v>0.95181765308171351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.5">
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="17">
-        <v>0.75351086959301161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.5">
@@ -6639,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="17">
-        <v>1.2924780096691231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.5">
@@ -6651,7 +6651,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="17">
-        <v>0.76708646014661186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.5">
@@ -6663,7 +6663,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="17">
-        <v>0.73295830177356203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.5">
@@ -6675,7 +6675,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="17">
-        <v>1.2979881376626841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.5">
@@ -6687,7 +6687,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="17">
-        <v>0.70432719106209163</v>
+        <v>0.21526298574380329</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.5">
@@ -6699,7 +6699,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="17">
-        <v>0.84480359326890231</v>
+        <v>0.3179682326943174</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.5">
@@ -6711,7 +6711,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="17">
-        <v>1.153315121817978</v>
+        <v>0.50076187285100004</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.5">
@@ -6723,7 +6723,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="17">
-        <v>0.7026334684190253</v>
+        <v>0.66067539429911681</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.5">
@@ -6735,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="17">
-        <v>0.70121781132548644</v>
+        <v>0.7547966078708247</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.5">
@@ -6747,7 +6747,7 @@
         <v>13</v>
       </c>
       <c r="C69" s="17">
-        <v>3.5287742423141748</v>
+        <v>0.77852236555536936</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.5">
@@ -6759,7 +6759,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="17">
-        <v>3.2162524833011359</v>
+        <v>0.79719024483641654</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.5">
@@ -6771,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="17">
-        <v>3.3773319784541158</v>
+        <v>0.80646036266743248</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.5">
@@ -6783,7 +6783,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="17">
-        <v>3.6720288615838168</v>
+        <v>0.77408674979457359</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.5">
@@ -6795,7 +6795,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="17">
-        <v>3.7683488504679361</v>
+        <v>0.69371913617180814</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.5">
@@ -6807,7 +6807,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="17">
-        <v>3.4122898501274288</v>
+        <v>0.33062888415543795</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.5">
@@ -6819,7 +6819,7 @@
         <v>19</v>
       </c>
       <c r="C75" s="17">
-        <v>3.4616541498081368</v>
+        <v>0.21640380058875616</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.5">
@@ -6831,7 +6831,7 @@
         <v>20</v>
       </c>
       <c r="C76" s="17">
-        <v>1.371969767939317</v>
+        <v>0.14993338598632616</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.5">
@@ -6843,7 +6843,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="17">
-        <v>1.853510184123202</v>
+        <v>0.13057144452688091</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.5">
@@ -6855,7 +6855,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="17">
-        <v>2.3082820419632091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.5">
@@ -6867,7 +6867,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="17">
-        <v>2.963851658538502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.5">
@@ -6879,7 +6879,7 @@
         <v>24</v>
       </c>
       <c r="C80" s="17">
-        <v>3.133618093024749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.5">
@@ -6891,7 +6891,7 @@
         <v>25</v>
       </c>
       <c r="C81" s="17">
-        <v>3.1602343775298518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.5">
@@ -6903,7 +6903,7 @@
         <v>26</v>
       </c>
       <c r="C82" s="17">
-        <v>3.1943524554969041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.5">
@@ -6915,7 +6915,7 @@
         <v>27</v>
       </c>
       <c r="C83" s="17">
-        <v>3.4202358527906611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.5">
@@ -6927,7 +6927,7 @@
         <v>28</v>
       </c>
       <c r="C84" s="17">
-        <v>3.243217283419594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.5">
@@ -6939,7 +6939,7 @@
         <v>29</v>
       </c>
       <c r="C85" s="17">
-        <v>3.5346319741096468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.5">
@@ -6951,7 +6951,7 @@
         <v>30</v>
       </c>
       <c r="C86" s="17">
-        <v>3.252558322543476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.5">
@@ -6963,7 +6963,7 @@
         <v>31</v>
       </c>
       <c r="C87" s="17">
-        <v>3.0061385222364891</v>
+        <v>0.10763149287190164</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.5">
@@ -6975,7 +6975,7 @@
         <v>32</v>
       </c>
       <c r="C88" s="17">
-        <v>2.5197292398226701</v>
+        <v>0.26661560921906036</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.5">
@@ -6987,7 +6987,7 @@
         <v>33</v>
       </c>
       <c r="C89" s="17">
-        <v>1.9289144318830591</v>
+        <v>0.40936505277265872</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.5">
@@ -6999,7 +6999,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="17">
-        <v>1.3349036695322749</v>
+        <v>0.58071863357505837</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.5">
@@ -7011,7 +7011,7 @@
         <v>35</v>
       </c>
       <c r="C91" s="17">
-        <v>3.6961107620154099</v>
+        <v>0.7077360010849707</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.5">
@@ -7023,7 +7023,7 @@
         <v>36</v>
       </c>
       <c r="C92" s="17">
-        <v>3.736714627466363</v>
+        <v>0.76665948671309692</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.5">
@@ -7035,7 +7035,7 @@
         <v>37</v>
       </c>
       <c r="C93" s="17">
-        <v>3.4711547178578108</v>
+        <v>0.78785630519589289</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.5">
@@ -7047,7 +7047,7 @@
         <v>38</v>
       </c>
       <c r="C94" s="17">
-        <v>3.5954789094089858</v>
+        <v>0.80182530375192462</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.5">
@@ -7059,7 +7059,7 @@
         <v>39</v>
       </c>
       <c r="C95" s="17">
-        <v>3.269625163959506</v>
+        <v>0.79027355623100304</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.5">
@@ -7071,7 +7071,7 @@
         <v>40</v>
       </c>
       <c r="C96" s="17">
-        <v>3.4562069264411859</v>
+        <v>0.73390294298319092</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.5">
@@ -7083,7 +7083,7 @@
         <v>41</v>
       </c>
       <c r="C97" s="17">
-        <v>3.3186909606728849</v>
+        <v>0.51217401016362296</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.5">
@@ -7095,7 +7095,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="17">
-        <v>3.4520337020008989</v>
+        <v>0.27351634237209704</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.5">
@@ -7107,7 +7107,7 @@
         <v>43</v>
       </c>
       <c r="C99" s="17">
-        <v>3.3181896684229808</v>
+        <v>0.18316859328754118</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.5">
@@ -7119,7 +7119,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="17">
-        <v>1.100381680786374</v>
+        <v>0.14025241525660354</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.5">
@@ -7131,7 +7131,7 @@
         <v>45</v>
       </c>
       <c r="C101" s="17">
-        <v>1.0588529265995319</v>
+        <v>6.5285722263440454E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.5">
@@ -7143,7 +7143,7 @@
         <v>46</v>
       </c>
       <c r="C102" s="17">
-        <v>0.9928897267151584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.5">
@@ -7155,7 +7155,7 @@
         <v>47</v>
       </c>
       <c r="C103" s="17">
-        <v>0.95301498113521932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
@@ -7167,7 +7167,7 @@
         <v>48</v>
       </c>
       <c r="C104" s="17">
-        <v>0.89655344432903084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="17">
-        <v>0.90749050303367618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
@@ -7191,7 +7191,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="17">
-        <v>0.93550833791148702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
@@ -7203,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="C107" s="17">
-        <v>1.069413900848444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
@@ -7215,7 +7215,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="17">
-        <v>1.248520474300532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
@@ -7227,7 +7227,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="17">
-        <v>1.2903714563015769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
@@ -7239,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="17">
-        <v>0.88060589023533964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
@@ -7251,7 +7251,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="17">
-        <v>1.102248862810856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
@@ -7263,7 +7263,7 @@
         <v>8</v>
       </c>
       <c r="C112" s="17">
-        <v>1.1950176741878571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.5">
@@ -7275,7 +7275,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="17">
-        <v>1.0271252620344971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.5">
@@ -7287,7 +7287,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="17">
-        <v>1.1126338689041619</v>
+        <v>0.31302204245745874</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.5">
@@ -7299,7 +7299,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="17">
-        <v>1.1917151133365671</v>
+        <v>0.34319380290229684</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.5">
@@ -7311,7 +7311,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="17">
-        <v>1.0199471508548461</v>
+        <v>0.36826779631269496</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.5">
@@ -7323,7 +7323,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="17">
-        <v>3.322823418551287</v>
+        <v>0.3930226806755539</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.5">
@@ -7335,7 +7335,7 @@
         <v>14</v>
       </c>
       <c r="C118" s="17">
-        <v>3.2184285992962991</v>
+        <v>0.40012285698330252</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.5">
@@ -7347,7 +7347,7 @@
         <v>15</v>
       </c>
       <c r="C119" s="17">
-        <v>3.2212539223524921</v>
+        <v>0.4204341478591771</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.5">
@@ -7359,7 +7359,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="17">
-        <v>3.3754651054607132</v>
+        <v>0.42965639933306204</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.5">
@@ -7371,7 +7371,7 @@
         <v>17</v>
       </c>
       <c r="C121" s="17">
-        <v>3.306238562472319</v>
+        <v>0.40953657388571107</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.5">
@@ -7383,7 +7383,7 @@
         <v>18</v>
       </c>
       <c r="C122" s="17">
-        <v>3.3263546474420771</v>
+        <v>0.32029772874135409</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.5">
@@ -7395,7 +7395,7 @@
         <v>19</v>
       </c>
       <c r="C123" s="17">
-        <v>3.2778449089591311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.5">
@@ -7407,7 +7407,7 @@
         <v>20</v>
       </c>
       <c r="C124" s="17">
-        <v>1.4154342449947901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.5">
@@ -7419,7 +7419,7 @@
         <v>21</v>
       </c>
       <c r="C125" s="17">
-        <v>1.7691676164009209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.5">
@@ -7431,7 +7431,7 @@
         <v>22</v>
       </c>
       <c r="C126" s="17">
-        <v>2.3211803642619828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.5">
@@ -7443,7 +7443,7 @@
         <v>23</v>
       </c>
       <c r="C127" s="17">
-        <v>2.9219072477304628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.5">
@@ -7455,7 +7455,7 @@
         <v>24</v>
       </c>
       <c r="C128" s="17">
-        <v>3.338930418908503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.5">
@@ -7467,7 +7467,7 @@
         <v>25</v>
       </c>
       <c r="C129" s="17">
-        <v>3.4918995900089289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.5">
@@ -7479,7 +7479,7 @@
         <v>26</v>
       </c>
       <c r="C130" s="17">
-        <v>3.2315413936249691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.5">
@@ -7491,7 +7491,7 @@
         <v>27</v>
       </c>
       <c r="C131" s="17">
-        <v>3.5973647521107219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.5">
@@ -7503,7 +7503,7 @@
         <v>28</v>
       </c>
       <c r="C132" s="17">
-        <v>3.4260039368157522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.5">
@@ -7515,7 +7515,7 @@
         <v>29</v>
       </c>
       <c r="C133" s="17">
-        <v>3.4592168993553751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.5">
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="C134" s="17">
-        <v>3.3050284878238818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.5">
@@ -7539,7 +7539,7 @@
         <v>31</v>
       </c>
       <c r="C135" s="17">
-        <v>2.6739445361856071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.5">
@@ -7551,7 +7551,7 @@
         <v>32</v>
       </c>
       <c r="C136" s="17">
-        <v>2.4833681892941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.5">
@@ -7563,7 +7563,7 @@
         <v>33</v>
       </c>
       <c r="C137" s="17">
-        <v>2.202781112055249</v>
+        <v>0.15651102122872937</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.5">
@@ -7575,7 +7575,7 @@
         <v>34</v>
       </c>
       <c r="C138" s="17">
-        <v>1.4086974215222701</v>
+        <v>0.32810792267987776</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.5">
@@ -7587,7 +7587,7 @@
         <v>35</v>
       </c>
       <c r="C139" s="17">
-        <v>3.6376511163336791</v>
+        <v>0.35573079960749587</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.5">
@@ -7599,7 +7599,7 @@
         <v>36</v>
       </c>
       <c r="C140" s="17">
-        <v>3.472051812521646</v>
+        <v>0.3806452384941244</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.5">
@@ -7611,7 +7611,7 @@
         <v>37</v>
       </c>
       <c r="C141" s="17">
-        <v>3.3392793784550561</v>
+        <v>0.39657276882942821</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.5">
@@ -7623,7 +7623,7 @@
         <v>38</v>
       </c>
       <c r="C142" s="17">
-        <v>3.6104637901125209</v>
+        <v>0.41027850242123987</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.5">
@@ -7635,7 +7635,7 @@
         <v>39</v>
       </c>
       <c r="C143" s="17">
-        <v>3.3751940379520282</v>
+        <v>0.4250452735961196</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.5">
@@ -7647,7 +7647,7 @@
         <v>40</v>
       </c>
       <c r="C144" s="17">
-        <v>3.4857574195166761</v>
+        <v>0.41959648660938653</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.5">
@@ -7659,7 +7659,7 @@
         <v>41</v>
       </c>
       <c r="C145" s="17">
-        <v>3.2471212163395178</v>
+        <v>0.36491715131353253</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.5">
@@ -7671,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="C146" s="17">
-        <v>3.292623923233108</v>
+        <v>0.16014886437067705</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.5">
@@ -7683,7 +7683,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="17">
-        <v>3.5102268862828772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.5">
@@ -7695,7 +7695,7 @@
         <v>44</v>
       </c>
       <c r="C148" s="17">
-        <v>1.1260982237975461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.5">
@@ -7707,7 +7707,7 @@
         <v>45</v>
       </c>
       <c r="C149" s="17">
-        <v>1.118214235112498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.5">
@@ -7719,7 +7719,7 @@
         <v>46</v>
       </c>
       <c r="C150" s="17">
-        <v>0.90147237847687633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.5">
@@ -7731,7 +7731,7 @@
         <v>47</v>
       </c>
       <c r="C151" s="17">
-        <v>0.71672979635626555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.5">
@@ -7743,7 +7743,7 @@
         <v>48</v>
       </c>
       <c r="C152" s="17">
-        <v>1.269064099953632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.5">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="17">
-        <v>1.018591447602007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.5">
@@ -7767,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="17">
-        <v>0.88253201517769786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.5">
@@ -7779,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="17">
-        <v>0.89375369952802519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.5">
@@ -7791,7 +7791,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="17">
-        <v>0.99045602482383488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.5">
@@ -7803,7 +7803,7 @@
         <v>5</v>
       </c>
       <c r="C157" s="17">
-        <v>0.94235112086146444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.5">
@@ -7815,7 +7815,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="17">
-        <v>0.7658223871860923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.5">
@@ -7827,7 +7827,7 @@
         <v>7</v>
       </c>
       <c r="C159" s="17">
-        <v>1.2686105775884811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.5">
@@ -7839,7 +7839,7 @@
         <v>8</v>
       </c>
       <c r="C160" s="17">
-        <v>0.91563685988217758</v>
+        <v>0.44392057375806737</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.5">
@@ -7851,7 +7851,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="17">
-        <v>1.176966836330632</v>
+        <v>0.50286001483857068</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.5">
@@ -7863,7 +7863,7 @@
         <v>10</v>
       </c>
       <c r="C162" s="17">
-        <v>1.0038656427544359</v>
+        <v>0.68665087076881337</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.5">
@@ -7875,7 +7875,7 @@
         <v>11</v>
       </c>
       <c r="C163" s="17">
-        <v>0.92898310315121957</v>
+        <v>0.83203695282770496</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.5">
@@ -7887,7 +7887,7 @@
         <v>12</v>
       </c>
       <c r="C164" s="17">
-        <v>0.75443992731071585</v>
+        <v>0.93413589258789442</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.5">
@@ -7899,7 +7899,7 @@
         <v>13</v>
       </c>
       <c r="C165" s="17">
-        <v>3.4743437917412101</v>
+        <v>0.94766611620355978</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.5">
@@ -7911,7 +7911,7 @@
         <v>14</v>
       </c>
       <c r="C166" s="17">
-        <v>3.7528857640606148</v>
+        <v>0.97246088919736084</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.5">
@@ -7923,7 +7923,7 @@
         <v>15</v>
       </c>
       <c r="C167" s="17">
-        <v>3.2020451840162498</v>
+        <v>0.97435161030403095</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.5">
@@ -7935,7 +7935,7 @@
         <v>16</v>
       </c>
       <c r="C168" s="17">
-        <v>3.5310214236902771</v>
+        <v>0.94402029533542342</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.5">
@@ -7947,7 +7947,7 @@
         <v>17</v>
       </c>
       <c r="C169" s="17">
-        <v>3.404543104932114</v>
+        <v>0.86188162649881528</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.5">
@@ -7959,7 +7959,7 @@
         <v>18</v>
       </c>
       <c r="C170" s="17">
-        <v>3.560330151701482</v>
+        <v>0.68027666754421645</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.5">
@@ -7971,7 +7971,7 @@
         <v>19</v>
       </c>
       <c r="C171" s="17">
-        <v>3.6843026716608498</v>
+        <v>0.24465292902217006</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.5">
@@ -7983,7 +7983,7 @@
         <v>20</v>
       </c>
       <c r="C172" s="17">
-        <v>1.4330850373407951</v>
+        <v>0.19607655426050463</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.5">
@@ -7995,7 +7995,7 @@
         <v>21</v>
       </c>
       <c r="C173" s="17">
-        <v>1.934990549518766</v>
+        <v>0.16450869173268232</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.5">
@@ -8007,7 +8007,7 @@
         <v>22</v>
       </c>
       <c r="C174" s="17">
-        <v>2.630252711666639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.5">
@@ -8019,7 +8019,7 @@
         <v>23</v>
       </c>
       <c r="C175" s="17">
-        <v>2.6015040367460252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.5">
@@ -8031,7 +8031,7 @@
         <v>24</v>
       </c>
       <c r="C176" s="17">
-        <v>3.2930328634177499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.5">
@@ -8043,7 +8043,7 @@
         <v>25</v>
       </c>
       <c r="C177" s="17">
-        <v>3.5754364844058451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.5">
@@ -8055,7 +8055,7 @@
         <v>26</v>
       </c>
       <c r="C178" s="17">
-        <v>3.2672480748844892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.5">
@@ -8067,7 +8067,7 @@
         <v>27</v>
       </c>
       <c r="C179" s="17">
-        <v>3.458862245392043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.5">
@@ -8079,7 +8079,7 @@
         <v>28</v>
       </c>
       <c r="C180" s="17">
-        <v>3.7270070904695061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.5">
@@ -8091,7 +8091,7 @@
         <v>29</v>
       </c>
       <c r="C181" s="17">
-        <v>3.046308392015006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.5">
@@ -8103,7 +8103,7 @@
         <v>30</v>
       </c>
       <c r="C182" s="17">
-        <v>2.944488685105167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.5">
@@ -8115,7 +8115,7 @@
         <v>31</v>
       </c>
       <c r="C183" s="17">
-        <v>2.8846949964946749</v>
+        <v>0.22196028687903369</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.5">
@@ -8127,7 +8127,7 @@
         <v>32</v>
       </c>
       <c r="C184" s="17">
-        <v>2.5204143720559369</v>
+        <v>0.47339029429831908</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.5">
@@ -8139,7 +8139,7 @@
         <v>33</v>
       </c>
       <c r="C185" s="17">
-        <v>1.705630519751298</v>
+        <v>0.59475544280369208</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.5">
@@ -8151,7 +8151,7 @@
         <v>34</v>
       </c>
       <c r="C186" s="17">
-        <v>1.373530326184893</v>
+        <v>0.75934391179825911</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.5">
@@ -8163,7 +8163,7 @@
         <v>35</v>
       </c>
       <c r="C187" s="17">
-        <v>3.499941747512703</v>
+        <v>0.88308642270779958</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.5">
@@ -8175,7 +8175,7 @@
         <v>36</v>
       </c>
       <c r="C188" s="17">
-        <v>3.6190174342898138</v>
+        <v>0.94090100439572721</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.5">
@@ -8187,7 +8187,7 @@
         <v>37</v>
       </c>
       <c r="C189" s="17">
-        <v>3.4617850749682022</v>
+        <v>0.96006350270046037</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.5">
@@ -8199,7 +8199,7 @@
         <v>38</v>
       </c>
       <c r="C190" s="17">
-        <v>3.6232851138567921</v>
+        <v>0.9734062497506959</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.5">
@@ -8211,7 +8211,7 @@
         <v>39</v>
       </c>
       <c r="C191" s="17">
-        <v>3.2068226207123041</v>
+        <v>0.95918595281972707</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.5">
@@ -8223,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="C192" s="17">
-        <v>3.5620007205244448</v>
+        <v>0.90295096091711935</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.5">
@@ -8235,7 +8235,7 @@
         <v>41</v>
       </c>
       <c r="C193" s="17">
-        <v>3.7082939358095302</v>
+        <v>0.77107914702151581</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.5">
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
       <c r="C194" s="17">
-        <v>3.5946160338072071</v>
+        <v>0.46246479828319326</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.5">
@@ -8259,7 +8259,7 @@
         <v>43</v>
       </c>
       <c r="C195" s="17">
-        <v>3.4203440780754799</v>
+        <v>0.22036474164133735</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.5">
@@ -8271,7 +8271,7 @@
         <v>44</v>
       </c>
       <c r="C196" s="17">
-        <v>0.86634916319411537</v>
+        <v>0.18029262299659349</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.5">
@@ -8283,7 +8283,7 @@
         <v>45</v>
       </c>
       <c r="C197" s="17">
-        <v>1.125314095328817</v>
+        <v>8.2254345866341158E-2</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.5">
@@ -8295,7 +8295,7 @@
         <v>46</v>
       </c>
       <c r="C198" s="17">
-        <v>1.0341560601273789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.5">
@@ -8307,7 +8307,7 @@
         <v>47</v>
       </c>
       <c r="C199" s="17">
-        <v>1.177715668191059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.5">
@@ -8319,7 +8319,7 @@
         <v>48</v>
       </c>
       <c r="C200" s="17">
-        <v>0.71798658979874941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.5">
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="17">
-        <v>1.124697475624399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.5">
@@ -8343,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="C202" s="17">
-        <v>0.78106043578311946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.5">
@@ -8355,7 +8355,7 @@
         <v>3</v>
       </c>
       <c r="C203" s="17">
-        <v>1.114860006984455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.5">
@@ -8367,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="17">
-        <v>0.85759398713702784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.5">
@@ -8379,7 +8379,7 @@
         <v>5</v>
       </c>
       <c r="C205" s="17">
-        <v>0.95523451651435265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.5">
@@ -8391,7 +8391,7 @@
         <v>6</v>
       </c>
       <c r="C206" s="17">
-        <v>1.0111070285335491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.5">
@@ -8403,7 +8403,7 @@
         <v>7</v>
       </c>
       <c r="C207" s="17">
-        <v>0.94846563073328904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.5">
@@ -8415,7 +8415,7 @@
         <v>8</v>
       </c>
       <c r="C208" s="17">
-        <v>1.298563083364229</v>
+        <v>0.36031400330277868</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.5">
@@ -8427,7 +8427,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="17">
-        <v>1.00701680247271</v>
+        <v>0.48462293277170138</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.5">
@@ -8439,7 +8439,7 @@
         <v>10</v>
       </c>
       <c r="C210" s="17">
-        <v>1.1098878250420019</v>
+        <v>0.68399428794804906</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.5">
@@ -8451,7 +8451,7 @@
         <v>11</v>
       </c>
       <c r="C211" s="17">
-        <v>1.1105551739469111</v>
+        <v>0.81762120160511831</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.5">
@@ -8463,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="C212" s="17">
-        <v>1.0746672809029481</v>
+        <v>0.91324222770026076</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.5">
@@ -8475,7 +8475,7 @@
         <v>13</v>
       </c>
       <c r="C213" s="17">
-        <v>3.211929536992665</v>
+        <v>0.93025871766029256</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.5">
@@ -8487,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="C214" s="17">
-        <v>3.6078716229337582</v>
+        <v>0.95405627488053346</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.5">
@@ -8499,7 +8499,7 @@
         <v>15</v>
       </c>
       <c r="C215" s="17">
-        <v>3.21643793638941</v>
+        <v>0.92728302579198851</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.5">
@@ -8511,7 +8511,7 @@
         <v>16</v>
       </c>
       <c r="C216" s="17">
-        <v>3.3100832879856492</v>
+        <v>0.84632506043127587</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.5">
@@ -8523,7 +8523,7 @@
         <v>17</v>
       </c>
       <c r="C217" s="17">
-        <v>3.68903082468284</v>
+        <v>0.73993410398168302</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.5">
@@ -8535,7 +8535,7 @@
         <v>18</v>
       </c>
       <c r="C218" s="17">
-        <v>3.4422137141838598</v>
+        <v>0.59099793376891707</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.5">
@@ -8547,7 +8547,7 @@
         <v>19</v>
       </c>
       <c r="C219" s="17">
-        <v>3.377803410985023</v>
+        <v>0.23243903022760448</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.5">
@@ -8559,7 +8559,7 @@
         <v>20</v>
       </c>
       <c r="C220" s="17">
-        <v>1.7113345838447349</v>
+        <v>0.19160902759495488</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.5">
@@ -8571,7 +8571,7 @@
         <v>21</v>
       </c>
       <c r="C221" s="17">
-        <v>1.7199208291204851</v>
+        <v>0.1595146351386928</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.5">
@@ -8583,7 +8583,7 @@
         <v>22</v>
       </c>
       <c r="C222" s="17">
-        <v>2.196351965274133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.5">
@@ -8595,7 +8595,7 @@
         <v>23</v>
       </c>
       <c r="C223" s="17">
-        <v>2.7196117065193328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.5">
@@ -8607,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="17">
-        <v>2.8047445216896092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.5">
@@ -8619,7 +8619,7 @@
         <v>25</v>
       </c>
       <c r="C225" s="17">
-        <v>3.044175195247985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.5">
@@ -8631,7 +8631,7 @@
         <v>26</v>
       </c>
       <c r="C226" s="17">
-        <v>3.7125906451518071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.5">
@@ -8643,7 +8643,7 @@
         <v>27</v>
       </c>
       <c r="C227" s="17">
-        <v>3.3850757977869859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.5">
@@ -8655,7 +8655,7 @@
         <v>28</v>
       </c>
       <c r="C228" s="17">
-        <v>3.643839041275748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.5">
@@ -8667,7 +8667,7 @@
         <v>29</v>
       </c>
       <c r="C229" s="17">
-        <v>3.5389792053491238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.5">
@@ -8679,7 +8679,7 @@
         <v>30</v>
       </c>
       <c r="C230" s="17">
-        <v>2.823004828925801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.5">
@@ -8691,7 +8691,7 @@
         <v>31</v>
       </c>
       <c r="C231" s="17">
-        <v>2.5785573694209969</v>
+        <v>0.18015700165138934</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.5">
@@ -8703,7 +8703,7 @@
         <v>32</v>
       </c>
       <c r="C232" s="17">
-        <v>2.2023701337763919</v>
+        <v>0.42246846803723997</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.5">
@@ -8715,7 +8715,7 @@
         <v>33</v>
       </c>
       <c r="C233" s="17">
-        <v>1.87895418479275</v>
+        <v>0.58430861035987525</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.5">
@@ -8727,7 +8727,7 @@
         <v>34</v>
       </c>
       <c r="C234" s="17">
-        <v>1.7723888238035399</v>
+        <v>0.75080774477658374</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.5">
@@ -8739,7 +8739,7 @@
         <v>35</v>
       </c>
       <c r="C235" s="17">
-        <v>3.339585089420483</v>
+        <v>0.86543171465268964</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.5">
@@ -8751,7 +8751,7 @@
         <v>36</v>
       </c>
       <c r="C236" s="17">
-        <v>3.2686801000564829</v>
+        <v>0.92175047268027666</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.5">
@@ -8763,7 +8763,7 @@
         <v>37</v>
       </c>
       <c r="C237" s="17">
-        <v>3.6526782805760489</v>
+        <v>0.94215749627041301</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.5">
@@ -8775,7 +8775,7 @@
         <v>38</v>
       </c>
       <c r="C238" s="17">
-        <v>3.6016706296599539</v>
+        <v>0.94066965033626104</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.5">
@@ -8787,7 +8787,7 @@
         <v>39</v>
       </c>
       <c r="C239" s="17">
-        <v>3.371152213135419</v>
+        <v>0.88680404311163219</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.5">
@@ -8799,7 +8799,7 @@
         <v>40</v>
       </c>
       <c r="C240" s="17">
-        <v>3.6257361913700898</v>
+        <v>0.79312958220647944</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.5">
@@ -8811,7 +8811,7 @@
         <v>41</v>
       </c>
       <c r="C241" s="17">
-        <v>3.5784113088652649</v>
+        <v>0.66546601887529999</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.5">
@@ -8823,7 +8823,7 @@
         <v>42</v>
       </c>
       <c r="C242" s="17">
-        <v>3.7989048160219818</v>
+        <v>0.41171848199826078</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.5">
@@ -8835,7 +8835,7 @@
         <v>43</v>
       </c>
       <c r="C243" s="17">
-        <v>3.6241912250183579</v>
+        <v>0.21202402891127967</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.5">
@@ -8847,7 +8847,7 @@
         <v>44</v>
       </c>
       <c r="C244" s="17">
-        <v>1.2318035737924049</v>
+        <v>0.17556183136682382</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.5">
@@ -8859,7 +8859,7 @@
         <v>45</v>
       </c>
       <c r="C245" s="17">
-        <v>1.2257028850573051</v>
+        <v>7.9757317569346398E-2</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.5">
@@ -8871,7 +8871,7 @@
         <v>46</v>
       </c>
       <c r="C246" s="17">
-        <v>0.9641871241690595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.5">
@@ -8883,7 +8883,7 @@
         <v>47</v>
       </c>
       <c r="C247" s="17">
-        <v>0.7028168048828336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.5">
@@ -8895,7 +8895,7 @@
         <v>48</v>
       </c>
       <c r="C248" s="17">
-        <v>0.89308997174358007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.5">
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="17">
-        <v>0.94138416906389633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.5">
@@ -8919,7 +8919,7 @@
         <v>2</v>
       </c>
       <c r="C250" s="17">
-        <v>0.92394941926740182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.5">
@@ -8931,7 +8931,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="17">
-        <v>0.70353110689163856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.5">
@@ -8943,7 +8943,7 @@
         <v>4</v>
       </c>
       <c r="C252" s="17">
-        <v>0.7954190672945145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.5">
@@ -8955,7 +8955,7 @@
         <v>5</v>
       </c>
       <c r="C253" s="17">
-        <v>0.96406864053809105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.5">
@@ -8967,7 +8967,7 @@
         <v>6</v>
       </c>
       <c r="C254" s="17">
-        <v>0.81139432535852352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.5">
@@ -8979,7 +8979,7 @@
         <v>7</v>
       </c>
       <c r="C255" s="17">
-        <v>1.005836973807279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.5">
@@ -8991,7 +8991,7 @@
         <v>8</v>
       </c>
       <c r="C256" s="17">
-        <v>1.2962203850059451</v>
+        <v>0.28881762120160515</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.5">
@@ -9003,7 +9003,7 @@
         <v>9</v>
       </c>
       <c r="C257" s="17">
-        <v>1.0887148337861901</v>
+        <v>0.45085321781585813</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.5">
@@ -9015,7 +9015,7 @@
         <v>10</v>
       </c>
       <c r="C258" s="17">
-        <v>1.2804256998278849</v>
+        <v>0.66484774509569278</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.5">
@@ -9027,7 +9027,7 @@
         <v>11</v>
       </c>
       <c r="C259" s="17">
-        <v>0.91919409015622833</v>
+        <v>0.81115924339244816</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.5">
@@ -9039,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="C260" s="17">
-        <v>1.298918381761164</v>
+        <v>0.90977989453445962</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.5">
@@ -9051,7 +9051,7 @@
         <v>13</v>
       </c>
       <c r="C261" s="17">
-        <v>3.3813203384217498</v>
+        <v>0.9216108624719781</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.5">
@@ -9063,7 +9063,7 @@
         <v>14</v>
       </c>
       <c r="C262" s="17">
-        <v>3.569541359276303</v>
+        <v>0.94675665541807286</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.5">
@@ -9075,7 +9075,7 @@
         <v>15</v>
       </c>
       <c r="C263" s="17">
-        <v>3.6850972204166861</v>
+        <v>0.95072158533374806</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.5">
@@ -9087,7 +9087,7 @@
         <v>16</v>
       </c>
       <c r="C264" s="17">
-        <v>3.4487537030423332</v>
+        <v>0.92688413948256465</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.5">
@@ -9099,7 +9099,7 @@
         <v>17</v>
       </c>
       <c r="C265" s="17">
-        <v>3.3190599568324259</v>
+        <v>0.85281892954869998</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.5">
@@ -9111,7 +9111,7 @@
         <v>18</v>
       </c>
       <c r="C266" s="17">
-        <v>3.3282876364473091</v>
+        <v>0.67409392974814331</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.5">
@@ -9123,7 +9123,7 @@
         <v>19</v>
       </c>
       <c r="C267" s="17">
-        <v>3.7915880243665172</v>
+        <v>0.24955125290189789</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.5">
@@ -9135,7 +9135,7 @@
         <v>20</v>
       </c>
       <c r="C268" s="17">
-        <v>1.729439860675654</v>
+        <v>0.1964913960223057</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.5">
@@ -9147,7 +9147,7 @@
         <v>21</v>
       </c>
       <c r="C269" s="17">
-        <v>2.208681843671898</v>
+        <v>0.16119793536446239</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.5">
@@ -9159,7 +9159,7 @@
         <v>22</v>
       </c>
       <c r="C270" s="17">
-        <v>2.2523515434415482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.5">
@@ -9171,7 +9171,7 @@
         <v>23</v>
       </c>
       <c r="C271" s="17">
-        <v>2.9605033616600558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.5">
@@ -9183,7 +9183,7 @@
         <v>24</v>
       </c>
       <c r="C272" s="17">
-        <v>3.372806228894857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.5">
@@ -9195,7 +9195,7 @@
         <v>25</v>
       </c>
       <c r="C273" s="17">
-        <v>3.2186859230010589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.5">
@@ -9207,7 +9207,7 @@
         <v>26</v>
       </c>
       <c r="C274" s="17">
-        <v>3.4558532222640861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.5">
@@ -9219,7 +9219,7 @@
         <v>27</v>
       </c>
       <c r="C275" s="17">
-        <v>3.6225324922556328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.5">
@@ -9231,7 +9231,7 @@
         <v>28</v>
       </c>
       <c r="C276" s="17">
-        <v>3.56573353350438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.5">
@@ -9243,7 +9243,7 @@
         <v>29</v>
       </c>
       <c r="C277" s="17">
-        <v>3.2971064339847111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.5">
@@ -9255,7 +9255,7 @@
         <v>30</v>
       </c>
       <c r="C278" s="17">
-        <v>2.9363817431856658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.5">
@@ -9267,7 +9267,7 @@
         <v>31</v>
       </c>
       <c r="C279" s="17">
-        <v>2.6721687396959459</v>
+        <v>0.14440881060080257</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.5">
@@ -9279,7 +9279,7 @@
         <v>32</v>
       </c>
       <c r="C280" s="17">
-        <v>2.6147259655298529</v>
+        <v>0.36983541950873161</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.5">
@@ -9291,7 +9291,7 @@
         <v>33</v>
       </c>
       <c r="C281" s="17">
-        <v>2.1936569226616349</v>
+        <v>0.55785048145577543</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.5">
@@ -9303,7 +9303,7 @@
         <v>34</v>
       </c>
       <c r="C282" s="17">
-        <v>1.534641119037172</v>
+        <v>0.73800349424407052</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.5">
@@ -9315,7 +9315,7 @@
         <v>35</v>
       </c>
       <c r="C283" s="17">
-        <v>3.3798512504764182</v>
+        <v>0.86046956896345383</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.5">
@@ -9327,7 +9327,7 @@
         <v>36</v>
       </c>
       <c r="C284" s="17">
-        <v>3.4981100695615099</v>
+        <v>0.9156953785032188</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.5">
@@ -9339,7 +9339,7 @@
         <v>37</v>
       </c>
       <c r="C285" s="17">
-        <v>3.2847355832970861</v>
+        <v>0.93418375894502537</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.5">
@@ -9351,7 +9351,7 @@
         <v>38</v>
       </c>
       <c r="C286" s="17">
-        <v>3.5499249790130012</v>
+        <v>0.94873912037591057</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.5">
@@ -9363,7 +9363,7 @@
         <v>39</v>
       </c>
       <c r="C287" s="17">
-        <v>3.3937721796098268</v>
+        <v>0.93880286240815625</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.5">
@@ -9375,7 +9375,7 @@
         <v>40</v>
       </c>
       <c r="C288" s="17">
-        <v>3.242390506418348</v>
+        <v>0.88985153451563226</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.5">
@@ -9387,7 +9387,7 @@
         <v>41</v>
       </c>
       <c r="C289" s="17">
-        <v>3.299583822192572</v>
+        <v>0.76345642964842164</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.5">
@@ -9399,7 +9399,7 @@
         <v>42</v>
       </c>
       <c r="C290" s="17">
-        <v>3.6090822163487619</v>
+        <v>0.46182259132502063</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.5">
@@ -9411,7 +9411,7 @@
         <v>43</v>
       </c>
       <c r="C291" s="17">
-        <v>3.4983132297529851</v>
+        <v>0.22302132446210179</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.5">
@@ -9423,7 +9423,7 @@
         <v>44</v>
       </c>
       <c r="C292" s="17">
-        <v>0.86393725688801948</v>
+        <v>0.17884466569338403</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.5">
@@ -9435,7 +9435,7 @@
         <v>45</v>
       </c>
       <c r="C293" s="17">
-        <v>0.93535938646285044</v>
+        <v>8.0598967682231196E-2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.5">
@@ -9447,7 +9447,7 @@
         <v>46</v>
       </c>
       <c r="C294" s="17">
-        <v>1.1280466298863689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.5">
@@ -9459,7 +9459,7 @@
         <v>47</v>
       </c>
       <c r="C295" s="17">
-        <v>1.1918931758256459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.5">
@@ -9471,7 +9471,7 @@
         <v>48</v>
       </c>
       <c r="C296" s="17">
-        <v>0.89770927921324306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.5">
@@ -9483,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="17">
-        <v>1.279816442783452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.5">
@@ -9495,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="C298" s="17">
-        <v>1.1738954777659361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.5">
@@ -9507,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="C299" s="17">
-        <v>0.74581696725173674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.5">
@@ -9519,7 +9519,7 @@
         <v>4</v>
       </c>
       <c r="C300" s="17">
-        <v>1.161234115787493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.5">
@@ -9531,7 +9531,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="17">
-        <v>0.7358319876788828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.5">
@@ -9543,7 +9543,7 @@
         <v>6</v>
       </c>
       <c r="C302" s="17">
-        <v>0.95497377897316582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.5">
@@ -9555,7 +9555,7 @@
         <v>7</v>
       </c>
       <c r="C303" s="17">
-        <v>1.002812957259583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.5">
@@ -9567,7 +9567,7 @@
         <v>8</v>
       </c>
       <c r="C304" s="17">
-        <v>0.7435168191977507</v>
+        <v>0.32278677931216038</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.5">
@@ -9579,7 +9579,7 @@
         <v>9</v>
       </c>
       <c r="C305" s="17">
-        <v>0.85727824527850971</v>
+        <v>0.46838825997814104</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.5">
@@ -9591,7 +9591,7 @@
         <v>10</v>
       </c>
       <c r="C306" s="17">
-        <v>1.0642903953767291</v>
+        <v>0.66071528293005921</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.5">
@@ -9603,7 +9603,7 @@
         <v>11</v>
       </c>
       <c r="C307" s="17">
-        <v>0.72494413700549121</v>
+        <v>0.78792810473158925</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.5">
@@ -9615,7 +9615,7 @@
         <v>12</v>
       </c>
       <c r="C308" s="17">
-        <v>1.1283889374736671</v>
+        <v>0.88984355678944382</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.5">
@@ -9627,7 +9627,7 @@
         <v>13</v>
       </c>
       <c r="C309" s="17">
-        <v>3.478218445705592</v>
+        <v>0.92727504806580019</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.5">
@@ -9639,7 +9639,7 @@
         <v>14</v>
       </c>
       <c r="C310" s="17">
-        <v>3.5553457112794522</v>
+        <v>0.9818746060997694</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.5">
@@ -9651,7 +9651,7 @@
         <v>15</v>
       </c>
       <c r="C311" s="17">
-        <v>3.6285710833154039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.5">
@@ -9663,7 +9663,7 @@
         <v>16</v>
       </c>
       <c r="C312" s="17">
-        <v>3.3970701055621171</v>
+        <v>0.96760245394857547</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.5">
@@ -9675,7 +9675,7 @@
         <v>17</v>
       </c>
       <c r="C313" s="17">
-        <v>3.5624402655702401</v>
+        <v>0.88231258326751716</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.5">
@@ -9687,7 +9687,7 @@
         <v>18</v>
       </c>
       <c r="C314" s="17">
-        <v>3.7654855460207548</v>
+        <v>0.68329224804346267</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.5">
@@ -9699,7 +9699,7 @@
         <v>19</v>
       </c>
       <c r="C315" s="17">
-        <v>3.313016852409421</v>
+        <v>0.2491204556877199</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.5">
@@ -9711,7 +9711,7 @@
         <v>20</v>
       </c>
       <c r="C316" s="17">
-        <v>1.2188863087457169</v>
+        <v>0.19807098580762511</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.5">
@@ -9723,7 +9723,7 @@
         <v>21</v>
       </c>
       <c r="C317" s="17">
-        <v>2.090497444522899</v>
+        <v>0.16494746667304883</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.5">
@@ -9735,7 +9735,7 @@
         <v>22</v>
       </c>
       <c r="C318" s="17">
-        <v>2.3870332040450721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.5">
@@ -9747,7 +9747,7 @@
         <v>23</v>
       </c>
       <c r="C319" s="17">
-        <v>2.6779435498462911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.5">
@@ -9759,7 +9759,7 @@
         <v>24</v>
       </c>
       <c r="C320" s="17">
-        <v>3.3136769334562399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.5">
@@ -9771,7 +9771,7 @@
         <v>25</v>
       </c>
       <c r="C321" s="17">
-        <v>3.363957049283123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.5">
@@ -9783,7 +9783,7 @@
         <v>26</v>
       </c>
       <c r="C322" s="17">
-        <v>3.4952475523163282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.5">
@@ -9795,7 +9795,7 @@
         <v>27</v>
       </c>
       <c r="C323" s="17">
-        <v>3.483619301412491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.5">
@@ -9807,7 +9807,7 @@
         <v>28</v>
       </c>
       <c r="C324" s="17">
-        <v>3.746006423678323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.5">
@@ -9819,7 +9819,7 @@
         <v>29</v>
       </c>
       <c r="C325" s="17">
-        <v>3.2256274501138109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.5">
@@ -9831,7 +9831,7 @@
         <v>30</v>
       </c>
       <c r="C326" s="17">
-        <v>2.860132213943642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.5">
@@ -9843,7 +9843,7 @@
         <v>31</v>
       </c>
       <c r="C327" s="17">
-        <v>2.8472705533120481</v>
+        <v>0.16139338965608019</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.5">
@@ -9855,7 +9855,7 @@
         <v>32</v>
       </c>
       <c r="C328" s="17">
-        <v>2.6871414795439388</v>
+        <v>0.39558751964515071</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.5">
@@ -9867,7 +9867,7 @@
         <v>33</v>
       </c>
       <c r="C329" s="17">
-        <v>2.2040435654800579</v>
+        <v>0.56455177145410007</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.5">
@@ -9879,7 +9879,7 @@
         <v>34</v>
       </c>
       <c r="C330" s="17">
-        <v>1.541389327944372</v>
+        <v>0.72432169383082423</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.5">
@@ -9891,7 +9891,7 @@
         <v>35</v>
       </c>
       <c r="C331" s="17">
-        <v>3.3155939637441159</v>
+        <v>0.83888583076051659</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.5">
@@ -9903,7 +9903,7 @@
         <v>36</v>
       </c>
       <c r="C332" s="17">
-        <v>3.4764711788412588</v>
+        <v>0.90855930242762206</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.5">
@@ -9915,7 +9915,7 @@
         <v>37</v>
       </c>
       <c r="C333" s="17">
-        <v>3.2093987876845058</v>
+        <v>0.95457482708278474</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.5">
@@ -9927,7 +9927,7 @@
         <v>38</v>
       </c>
       <c r="C334" s="17">
-        <v>3.7928602894055019</v>
+        <v>0.99093730304988459</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.5">
@@ -9939,7 +9939,7 @@
         <v>39</v>
       </c>
       <c r="C335" s="17">
-        <v>3.733027137984831</v>
+        <v>0.98380122697428773</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.5">
@@ -9951,7 +9951,7 @@
         <v>40</v>
       </c>
       <c r="C336" s="17">
-        <v>3.7884937453306571</v>
+        <v>0.92495751860804631</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.5">
@@ -9963,7 +9963,7 @@
         <v>41</v>
       </c>
       <c r="C337" s="17">
-        <v>3.2371056250476169</v>
+        <v>0.78280241565548991</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.5">
@@ -9975,7 +9975,7 @@
         <v>42</v>
       </c>
       <c r="C338" s="17">
-        <v>3.224899156556269</v>
+        <v>0.46620635186559128</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.5">
@@ -9987,7 +9987,7 @@
         <v>43</v>
       </c>
       <c r="C339" s="17">
-        <v>3.3601883855388439</v>
+        <v>0.22359572074767251</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.5">
@@ -9999,7 +9999,7 @@
         <v>44</v>
       </c>
       <c r="C340" s="17">
-        <v>1.255276020746632</v>
+        <v>0.181509226240337</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.5">
@@ -10011,7 +10011,7 @@
         <v>45</v>
       </c>
       <c r="C341" s="17">
-        <v>0.77477440456396007</v>
+        <v>8.2473733336524413E-2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.5">
@@ -10023,7 +10023,7 @@
         <v>46</v>
       </c>
       <c r="C342" s="17">
-        <v>0.70560268410760052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.5">
@@ -10035,7 +10035,7 @@
         <v>47</v>
       </c>
       <c r="C343" s="17">
-        <v>1.172335393353569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.5">
@@ -10047,13 +10047,15 @@
         <v>48</v>
       </c>
       <c r="C344" s="17">
-        <v>0.72095152977560517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A345" s="16"/>
       <c r="B345" s="18"/>
-      <c r="C345" s="17"/>
+      <c r="C345" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A346" s="16"/>
